--- a/results/mp/deberta/corona/confidence/84/stop-words-masking-0.2/avg_0.002_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/84/stop-words-masking-0.2/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="211">
   <si>
     <t>anchor score</t>
   </si>
@@ -67,157 +67,157 @@
     <t>risk</t>
   </si>
   <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>beauty</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>sharing</t>
+  </si>
+  <si>
+    <t>creative</t>
+  </si>
+  <si>
+    <t>puzzle</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>game</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>contest</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>wu</t>
+  </si>
+  <si>
+    <t>funny</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>competition</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>beauty</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>creative</t>
-  </si>
-  <si>
-    <t>puzzle</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>dear</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>game</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>contest</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>wu</t>
-  </si>
-  <si>
-    <t>funny</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>competition</t>
   </si>
   <si>
     <t>hand</t>
@@ -1012,10 +1012,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1094,7 +1094,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -1144,7 +1144,7 @@
         <v>9</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -1194,7 +1194,7 @@
         <v>12</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K5">
         <v>0.9777777777777777</v>
@@ -1244,7 +1244,7 @@
         <v>98</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K6">
         <v>0.9482758620689655</v>
@@ -1294,7 +1294,7 @@
         <v>17</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K7">
         <v>0.90625</v>
@@ -1344,7 +1344,7 @@
         <v>45</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K8">
         <v>0.8947368421052632</v>
@@ -1394,7 +1394,7 @@
         <v>35</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K9">
         <v>0.8899082568807339</v>
@@ -1444,7 +1444,7 @@
         <v>364</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K10">
         <v>0.8846153846153846</v>
@@ -1494,7 +1494,7 @@
         <v>61</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K11">
         <v>0.8666666666666667</v>
@@ -1523,28 +1523,28 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.08904109589041095</v>
+        <v>0.01538461538461539</v>
       </c>
       <c r="C12">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D12">
-        <v>207</v>
+        <v>72</v>
       </c>
       <c r="E12">
-        <v>0.9399999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="F12">
-        <v>0.06000000000000005</v>
+        <v>0.1899999999999999</v>
       </c>
       <c r="G12" t="b">
         <v>1</v>
       </c>
       <c r="H12">
-        <v>133</v>
+        <v>896</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K12">
         <v>0.8666666666666667</v>
@@ -1573,28 +1573,28 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.01538461538461539</v>
+        <v>0.01282051282051282</v>
       </c>
       <c r="C13">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D13">
-        <v>72</v>
+        <v>449</v>
       </c>
       <c r="E13">
-        <v>0.8100000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="F13">
-        <v>0.1899999999999999</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
       </c>
       <c r="H13">
-        <v>896</v>
+        <v>1694</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K13">
         <v>0.8666666666666667</v>
@@ -1623,13 +1623,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.01282051282051282</v>
+        <v>0.01252525252525253</v>
       </c>
       <c r="C14">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D14">
-        <v>449</v>
+        <v>663</v>
       </c>
       <c r="E14">
         <v>0.95</v>
@@ -1641,10 +1641,10 @@
         <v>1</v>
       </c>
       <c r="H14">
-        <v>1694</v>
+        <v>2444</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K14">
         <v>0.8666666666666667</v>
@@ -1673,28 +1673,28 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.01252525252525253</v>
+        <v>0.006834532374100719</v>
       </c>
       <c r="C15">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D15">
-        <v>663</v>
+        <v>440</v>
       </c>
       <c r="E15">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="F15">
-        <v>0.05000000000000004</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G15" t="b">
         <v>1</v>
       </c>
       <c r="H15">
-        <v>2444</v>
+        <v>2761</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K15">
         <v>0.8611111111111112</v>
@@ -1719,32 +1719,8 @@
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16">
-        <v>0.006834532374100719</v>
-      </c>
-      <c r="C16">
-        <v>19</v>
-      </c>
-      <c r="D16">
-        <v>440</v>
-      </c>
-      <c r="E16">
-        <v>0.96</v>
-      </c>
-      <c r="F16">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="G16" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16">
-        <v>2761</v>
-      </c>
       <c r="J16" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K16">
         <v>0.8461538461538461</v>
@@ -1770,7 +1746,7 @@
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K17">
         <v>0.84251968503937</v>
@@ -1796,7 +1772,7 @@
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K18">
         <v>0.8376068376068376</v>
@@ -1822,7 +1798,7 @@
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K19">
         <v>0.825</v>
@@ -1848,7 +1824,7 @@
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K20">
         <v>0.8095238095238095</v>
@@ -1874,7 +1850,7 @@
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K21">
         <v>0.8</v>
@@ -1900,7 +1876,7 @@
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K22">
         <v>0.7872340425531915</v>
@@ -1926,7 +1902,7 @@
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K23">
         <v>0.7777777777777778</v>
@@ -1952,7 +1928,7 @@
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K24">
         <v>0.7756410256410257</v>
@@ -1978,7 +1954,7 @@
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K25">
         <v>0.7727272727272727</v>
@@ -2004,7 +1980,7 @@
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K26">
         <v>0.75</v>
@@ -2030,7 +2006,7 @@
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K27">
         <v>0.75</v>
@@ -2056,7 +2032,7 @@
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K28">
         <v>0.7222222222222222</v>
@@ -2082,7 +2058,7 @@
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K29">
         <v>0.7142857142857143</v>
@@ -2108,7 +2084,7 @@
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K30">
         <v>0.7142857142857143</v>
@@ -2134,7 +2110,7 @@
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K31">
         <v>0.7058823529411765</v>
@@ -2160,7 +2136,7 @@
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K32">
         <v>0.7</v>
@@ -2186,7 +2162,7 @@
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K33">
         <v>0.6879432624113475</v>
@@ -2212,7 +2188,7 @@
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K34">
         <v>0.6862745098039216</v>
@@ -2238,7 +2214,7 @@
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K35">
         <v>0.6842105263157895</v>
@@ -2264,7 +2240,7 @@
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K36">
         <v>0.6818181818181818</v>
@@ -2290,33 +2266,33 @@
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K37">
-        <v>0.6796536796536796</v>
+        <v>0.6569037656903766</v>
       </c>
       <c r="L37">
         <v>157</v>
       </c>
       <c r="M37">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="N37">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O37">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q37">
-        <v>74</v>
+        <v>82</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K38">
         <v>0.6555555555555556</v>
@@ -2342,7 +2318,7 @@
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K39">
         <v>0.6521739130434783</v>
@@ -2368,7 +2344,7 @@
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K40">
         <v>0.6521739130434783</v>
@@ -2394,7 +2370,7 @@
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K41">
         <v>0.6268656716417911</v>
@@ -2420,7 +2396,7 @@
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K42">
         <v>0.6153846153846154</v>
@@ -2446,7 +2422,7 @@
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K43">
         <v>0.6086956521739131</v>
@@ -2472,28 +2448,28 @@
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="K44">
-        <v>0.5932721712538226</v>
+        <v>0.5909090909090909</v>
       </c>
       <c r="L44">
-        <v>194</v>
+        <v>13</v>
       </c>
       <c r="M44">
-        <v>207</v>
+        <v>14</v>
       </c>
       <c r="N44">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="O44">
-        <v>0.06000000000000005</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P44" t="b">
         <v>1</v>
       </c>
       <c r="Q44">
-        <v>133</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -2501,25 +2477,25 @@
         <v>64</v>
       </c>
       <c r="K45">
-        <v>0.5909090909090909</v>
+        <v>0.5873015873015873</v>
       </c>
       <c r="L45">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M45">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="N45">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
       <c r="O45">
-        <v>0.06999999999999995</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P45" t="b">
         <v>1</v>
       </c>
       <c r="Q45">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -2527,25 +2503,25 @@
         <v>65</v>
       </c>
       <c r="K46">
-        <v>0.5873015873015873</v>
+        <v>0.5813953488372093</v>
       </c>
       <c r="L46">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="M46">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="N46">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O46">
-        <v>0.05000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P46" t="b">
         <v>1</v>
       </c>
       <c r="Q46">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -2553,25 +2529,25 @@
         <v>66</v>
       </c>
       <c r="K47">
-        <v>0.5813953488372093</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="L47">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="M47">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="N47">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O47">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q47">
-        <v>36</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -2579,13 +2555,13 @@
         <v>67</v>
       </c>
       <c r="K48">
-        <v>0.5769230769230769</v>
+        <v>0.5705882352941176</v>
       </c>
       <c r="L48">
-        <v>15</v>
+        <v>194</v>
       </c>
       <c r="M48">
-        <v>15</v>
+        <v>194</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2597,7 +2573,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>11</v>
+        <v>146</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -5124,7 +5100,7 @@
     </row>
     <row r="146" spans="10:17">
       <c r="J146" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K146">
         <v>0.2054616384915475</v>
@@ -5254,7 +5230,7 @@
     </row>
     <row r="151" spans="10:17">
       <c r="J151" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K151">
         <v>0.2013201320132013</v>
@@ -6060,7 +6036,7 @@
     </row>
     <row r="182" spans="10:17">
       <c r="J182" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K182">
         <v>0.1323067253299811</v>
@@ -6398,7 +6374,7 @@
     </row>
     <row r="195" spans="10:17">
       <c r="J195" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K195">
         <v>0.06079664570230608</v>
